--- a/self/xlsx/projects.xlsx
+++ b/self/xlsx/projects.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandy1114/Desktop/myhugosite/themes/erblog/static/self/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9BAE78-5E84-B846-ABA1-635C461EC5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71247BD-AADA-AB45-A233-55688C45CF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="9140" xr2:uid="{9A738EA0-D6A5-A140-B63F-301FB45D4570}"/>
+    <workbookView xWindow="0" yWindow="7160" windowWidth="33600" windowHeight="12300" xr2:uid="{9A738EA0-D6A5-A140-B63F-301FB45D4570}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="147">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>High-Harmonic Generation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Particle-in-Cell Simulation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -550,6 +554,54 @@
   </si>
   <si>
     <t>MoonshineOSC.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Numerical experiment of phase-matched ion-based high-order harmonic generation in the water-window x-ray spectral region via electromagnetic envelope equation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Numerical Simulation of Ion-Based Water-Window High-Harmonic Generation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Numerical Simulation of Ion-Based Water-Window Harmonic Generation in Laser-Irradiated Gases</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journal Paper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>National Conference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Conference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OE2024.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAPPS2023.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS2024.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note: Physical-based Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotePBA.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical Based Animation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +664,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -624,15 +676,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -971,13 +1014,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F1F22F-448C-4942-BD42-7B99A21A1077}">
-  <dimension ref="A1:DH36"/>
+  <dimension ref="A1:BR40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -985,11 +1028,11 @@
     <col min="1" max="1" width="58.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="6" customWidth="1"/>
+    <col min="4" max="5" width="12" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="1"/>
-    <col min="9" max="9" width="13.33203125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="4" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" style="1"/>
     <col min="12" max="12" width="19" style="1" customWidth="1"/>
@@ -998,13 +1041,13 @@
     <col min="15" max="15" width="13" style="1" customWidth="1"/>
     <col min="16" max="16" width="8.1640625" style="1" customWidth="1"/>
     <col min="17" max="17" width="10.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.1640625" style="7" customWidth="1"/>
+    <col min="18" max="18" width="8.1640625" style="4" customWidth="1"/>
     <col min="19" max="19" width="9" style="1" customWidth="1"/>
     <col min="20" max="26" width="10.83203125" style="1"/>
     <col min="27" max="27" width="18.5" style="1" customWidth="1"/>
     <col min="28" max="28" width="19.6640625" style="1" customWidth="1"/>
     <col min="29" max="29" width="15.33203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="19.1640625" style="7" customWidth="1"/>
+    <col min="30" max="30" width="19.1640625" style="4" customWidth="1"/>
     <col min="31" max="31" width="15.1640625" style="1" customWidth="1"/>
     <col min="32" max="32" width="20" style="1" customWidth="1"/>
     <col min="33" max="34" width="15" style="1" customWidth="1"/>
@@ -1013,7 +1056,7 @@
     <col min="37" max="37" width="14" style="1" customWidth="1"/>
     <col min="38" max="38" width="20.33203125" style="1" customWidth="1"/>
     <col min="39" max="39" width="10.83203125" style="1"/>
-    <col min="40" max="40" width="14.33203125" style="7" customWidth="1"/>
+    <col min="40" max="40" width="14.33203125" style="4" customWidth="1"/>
     <col min="41" max="41" width="17" style="1" customWidth="1"/>
     <col min="42" max="42" width="26.1640625" style="1" customWidth="1"/>
     <col min="43" max="43" width="28.5" style="1" customWidth="1"/>
@@ -1021,24 +1064,26 @@
     <col min="45" max="45" width="20.33203125" style="1" customWidth="1"/>
     <col min="46" max="46" width="26.6640625" style="1" customWidth="1"/>
     <col min="47" max="47" width="17.33203125" style="1" customWidth="1"/>
-    <col min="48" max="48" width="15" style="6" customWidth="1"/>
+    <col min="48" max="48" width="15" style="1" customWidth="1"/>
     <col min="49" max="49" width="10.83203125" style="1"/>
     <col min="50" max="50" width="20.6640625" style="1" customWidth="1"/>
     <col min="51" max="51" width="13.5" style="1" customWidth="1"/>
-    <col min="52" max="52" width="14.33203125" style="7" customWidth="1"/>
-    <col min="53" max="53" width="16.83203125" style="1" customWidth="1"/>
-    <col min="54" max="54" width="10.83203125" style="1"/>
-    <col min="55" max="55" width="18.6640625" style="1" customWidth="1"/>
-    <col min="56" max="56" width="16.5" style="1" customWidth="1"/>
-    <col min="57" max="58" width="10.83203125" style="1"/>
+    <col min="52" max="52" width="27" style="4" customWidth="1"/>
+    <col min="53" max="53" width="14.33203125" style="4" customWidth="1"/>
+    <col min="54" max="54" width="16.83203125" style="1" customWidth="1"/>
+    <col min="55" max="55" width="10.83203125" style="1"/>
+    <col min="56" max="56" width="18.6640625" style="1" customWidth="1"/>
+    <col min="57" max="57" width="16.5" style="1" customWidth="1"/>
+    <col min="58" max="58" width="10.83203125" style="1"/>
     <col min="59" max="59" width="8.83203125" style="1" customWidth="1"/>
     <col min="60" max="61" width="10.83203125" style="1"/>
     <col min="62" max="62" width="19.33203125" style="1" customWidth="1"/>
     <col min="63" max="63" width="10.83203125" style="1"/>
     <col min="64" max="66" width="19.5" style="1" customWidth="1"/>
-    <col min="67" max="67" width="19.33203125" style="1" customWidth="1"/>
-    <col min="68" max="68" width="10.83203125" style="1"/>
-    <col min="69" max="71" width="19.5" style="1" customWidth="1"/>
+    <col min="67" max="67" width="15.83203125" style="4" customWidth="1"/>
+    <col min="68" max="68" width="20.6640625" style="1" customWidth="1"/>
+    <col min="69" max="69" width="24.33203125" style="1" customWidth="1"/>
+    <col min="70" max="71" width="19.5" style="1" customWidth="1"/>
     <col min="72" max="72" width="10.83203125" style="1"/>
     <col min="73" max="73" width="18.5" style="1" customWidth="1"/>
     <col min="74" max="74" width="10.83203125" style="1"/>
@@ -1050,7 +1095,7 @@
     <col min="80" max="80" width="19" style="1" customWidth="1"/>
     <col min="81" max="81" width="18.1640625" style="1" customWidth="1"/>
     <col min="82" max="97" width="10.83203125" style="1"/>
-    <col min="98" max="98" width="14.33203125" style="6" customWidth="1"/>
+    <col min="98" max="98" width="14.33203125" style="1" customWidth="1"/>
     <col min="99" max="99" width="16.83203125" style="1" customWidth="1"/>
     <col min="100" max="100" width="10.83203125" style="1"/>
     <col min="101" max="101" width="18.6640625" style="1" customWidth="1"/>
@@ -1064,7 +1109,7 @@
     <col min="113" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112">
+    <row r="1" spans="1:70">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1074,417 +1119,382 @@
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="4">
         <f>COUNTIF(F3:F36,"o")</f>
         <v>15</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="1">
         <f>COUNTIF(G3:G36,"o")</f>
+        <v>7</v>
+      </c>
+      <c r="H1" s="1">
+        <f t="shared" ref="H1:S1" si="0">COUNTIF(H3:H36,"o")</f>
         <v>8</v>
       </c>
-      <c r="H1" s="6">
-        <f t="shared" ref="H1:S1" si="0">COUNTIF(H3:H36,"o")</f>
-        <v>10</v>
-      </c>
-      <c r="I1" s="7">
+      <c r="I1" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M1" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N1" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O1" s="6">
+      <c r="M1" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="P1" s="6">
+      <c r="N1" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q1" s="6">
+      <c r="O1" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P1" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q1" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R1" s="7">
+      <c r="R1" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="S1" s="6">
+      <c r="S1" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="T1" s="6">
+      <c r="T1" s="1">
         <f t="shared" ref="T1" si="1">COUNTIF(T3:T36,"o")</f>
         <v>1</v>
       </c>
-      <c r="U1" s="6">
+      <c r="U1" s="1">
         <f t="shared" ref="U1:AM1" si="2">COUNTIF(U3:U36,"o")</f>
         <v>2</v>
       </c>
-      <c r="V1" s="6">
+      <c r="V1" s="1">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="W1" s="6">
+      <c r="W1" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X1" s="6">
+      <c r="X1" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Y1" s="6">
+      <c r="Y1" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Z1" s="6">
+      <c r="Z1" s="1">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AA1" s="6">
+      <c r="AA1" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AB1" s="6">
+      <c r="AB1" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AC1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AD1" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AE1" s="6">
+      <c r="AE1" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AF1" s="6">
+        <v>7</v>
+      </c>
+      <c r="AF1" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AG1" s="6">
+      <c r="AG1" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AH1" s="6">
+      <c r="AH1" s="1">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AI1" s="6">
+      <c r="AI1" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AJ1" s="6">
+      <c r="AJ1" s="1">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AK1" s="6">
+      <c r="AK1" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AL1" s="6">
+      <c r="AL1" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AM1" s="6">
+        <v>8</v>
+      </c>
+      <c r="AM1" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AN1" s="7">
-        <f t="shared" ref="AN1:BA1" si="3">COUNTIF(AN3:AN36,"o")</f>
+      <c r="AN1" s="4">
+        <f t="shared" ref="AN1:AO1" si="3">COUNTIF(AN3:AN36,"o")</f>
         <v>4</v>
       </c>
-      <c r="AO1" s="6">
+      <c r="AO1" s="1">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AP1" s="6">
+      <c r="AP1" s="1">
         <f t="shared" ref="AP1:BN1" si="4">COUNTIF(AP3:AP36,"o")</f>
         <v>2</v>
       </c>
-      <c r="AQ1" s="6">
+      <c r="AQ1" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AR1" s="6">
+      <c r="AR1" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AS1" s="6">
+      <c r="AS1" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AT1" s="6">
+      <c r="AT1" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AU1" s="6">
+      <c r="AU1" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AV1" s="6">
+      <c r="AV1" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AW1" s="6">
+      <c r="AW1" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AX1" s="6">
+      <c r="AX1" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AY1" s="6">
+      <c r="AY1" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AZ1" s="7">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="BA1" s="6">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="BB1" s="6">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="BC1" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BD1" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6">
+      <c r="BA1" s="4">
+        <f t="shared" ref="BA1:BE1" si="5">COUNTIF(BA3:BA36,"o")</f>
+        <v>6</v>
+      </c>
+      <c r="BB1" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="BC1" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="BD1" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="BE1" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="BF1" s="1">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="BG1" s="6">
+      <c r="BG1" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="BH1" s="6">
+      <c r="BH1" s="1">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="BI1" s="6">
+      <c r="BI1" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="BJ1" s="6">
+      <c r="BJ1" s="1">
         <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="BK1" s="6">
+        <v>5</v>
+      </c>
+      <c r="BK1" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="BL1" s="6">
+      <c r="BL1" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="BM1" s="6">
+      <c r="BM1" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="BN1" s="6">
+      <c r="BN1" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="BO1" s="6"/>
-      <c r="BP1" s="6"/>
-      <c r="BQ1" s="6"/>
-      <c r="BR1" s="6"/>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="6"/>
-      <c r="BU1" s="6"/>
-      <c r="BV1" s="6"/>
-      <c r="BW1" s="6"/>
-      <c r="BX1" s="6"/>
-      <c r="BY1" s="6"/>
-      <c r="CA1" s="6"/>
-      <c r="CB1" s="6"/>
-      <c r="CC1" s="6"/>
-      <c r="CE1" s="6"/>
-      <c r="CF1" s="6"/>
-      <c r="CG1" s="6"/>
-      <c r="CH1" s="6"/>
-      <c r="CI1" s="6"/>
-      <c r="CJ1" s="6"/>
-      <c r="CU1" s="6"/>
-      <c r="CV1" s="6"/>
-      <c r="CW1" s="6"/>
-      <c r="CX1" s="6"/>
-      <c r="CY1" s="6"/>
-      <c r="CZ1" s="6"/>
-      <c r="DA1" s="6"/>
-      <c r="DB1" s="6"/>
-      <c r="DC1" s="6"/>
-      <c r="DD1" s="6"/>
-      <c r="DE1" s="6"/>
-      <c r="DF1" s="6"/>
-      <c r="DG1" s="6"/>
-      <c r="DH1" s="6"/>
-    </row>
-    <row r="2" spans="1:112">
+    </row>
+    <row r="2" spans="1:70">
       <c r="C2" s="3"/>
-      <c r="F2" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>24</v>
+      <c r="F2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="7" t="s">
         <v>90</v>
       </c>
+      <c r="I2" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>27</v>
+        <v>99</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="Z2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AB2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>40</v>
+      <c r="AD2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN2" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AW2" s="1" t="s">
@@ -1496,90 +1506,105 @@
       <c r="AY2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AZ2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>65</v>
+      <c r="AZ2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:112">
+        <v>71</v>
+      </c>
+      <c r="BO2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:70">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C3" s="3">
         <v>36478</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <f>COUNTIF(F3:Q3,"o")</f>
         <v>0</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <f>COUNTIF(R3:BZ3,"o")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:112">
+    <row r="4" spans="1:70">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" s="3">
         <v>43622</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <f>COUNTIF(F4:Q4,"o")</f>
         <v>3</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <f>COUNTIF(R4:BZ4,"o")</f>
         <v>4</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="O4" s="1" t="s">
@@ -1588,7 +1613,7 @@
       <c r="AJ4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AV4" s="6" t="s">
+      <c r="AV4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AW4" s="1" t="s">
@@ -1598,65 +1623,65 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:112">
+    <row r="5" spans="1:70">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5" s="3">
         <v>43816</v>
       </c>
-      <c r="D5" s="4">
-        <f t="shared" ref="D5:D36" si="5">COUNTIF(F5:Q5,"o")</f>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:D30" si="6">COUNTIF(F5:Q5,"o")</f>
         <v>3</v>
       </c>
-      <c r="E5" s="4">
-        <f t="shared" ref="E5:E36" si="6">COUNTIF(R5:BZ5,"o")</f>
+      <c r="E5" s="2">
+        <f t="shared" ref="E5:E40" si="7">COUNTIF(R5:BZ5,"o")</f>
         <v>3</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AD5" s="7" t="s">
+      <c r="AD5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AJ5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AN5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:112">
+      <c r="AN5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:70">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C6" s="3">
         <v>43991</v>
       </c>
-      <c r="D6" s="4">
-        <f t="shared" si="5"/>
+      <c r="D6" s="2">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="E6" s="4">
-        <f t="shared" si="6"/>
+      <c r="E6" s="2">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="O6" s="1" t="s">
@@ -1668,32 +1693,32 @@
       <c r="AJ6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AN6" s="7" t="s">
+      <c r="AN6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AY6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:112">
+    <row r="7" spans="1:70">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" s="3">
         <v>44124</v>
       </c>
-      <c r="D7" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="2">
         <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -1709,25 +1734,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:112">
+    <row r="8" spans="1:70">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" s="3">
         <v>44358</v>
       </c>
-      <c r="D8" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="2">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="F8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -1748,26 +1773,29 @@
       <c r="AP8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:112">
+      <c r="AZ8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:70">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C9" s="3">
         <v>44474</v>
       </c>
-      <c r="D9" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="2">
         <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -1783,25 +1811,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:112">
+    <row r="10" spans="1:70">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C10" s="3">
         <v>44636</v>
       </c>
-      <c r="D10" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="2">
         <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -1823,917 +1851,1038 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:112">
+    <row r="11" spans="1:70">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C11" s="3">
         <v>44722</v>
       </c>
-      <c r="D11" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="D11" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:70">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44837</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:70">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44865</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:70">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44893</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:70">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44921</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:70">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="3">
+        <v>45046</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:69">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="3">
+        <v>45057</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:69">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="3">
+        <v>45076</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:69">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="3">
+        <v>45213</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:69">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45229</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:69">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="3">
+        <v>45237</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:69">
+      <c r="A22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="3">
+        <v>45244</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:69">
+      <c r="A23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="3">
+        <v>45247</v>
+      </c>
+      <c r="D23" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:112">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="3">
-        <v>44837</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="E23" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BQ23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:69">
+      <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="3">
+        <v>45274</v>
+      </c>
+      <c r="D24" s="2">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:112">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="E24" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:69">
+      <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="3">
+        <v>45281</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:69">
+      <c r="A26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="3">
+        <v>45316</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BP26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:69">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="3">
+        <v>45381</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK27" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:69">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="3">
+        <v>45412</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK28" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:69">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="3">
+        <v>45438</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:69">
+      <c r="A30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="3">
+        <v>45454</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AE30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO30" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:69">
+      <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="3">
+        <v>45458</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:D40" si="8">COUNTIF(F31:Q31,"o")</f>
+        <v>2</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:69">
+      <c r="A32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="3">
-        <v>44865</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:112">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="3">
-        <v>44893</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:112">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="3">
-        <v>44921</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:112">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="3">
-        <v>45046</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AZ16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="BB16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BF16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BH16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BI16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BJ16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BK16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:65">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="3">
-        <v>45057</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E17" s="4">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:65">
-      <c r="A18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="3">
-        <v>45076</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E18" s="4">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AZ18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="BC18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BF18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BH18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BI18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BK18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:65">
-      <c r="A19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="3">
-        <v>45213</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E19" s="4">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:65">
-      <c r="A20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="3">
-        <v>45229</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E20" s="4">
-        <f t="shared" si="6"/>
+      <c r="C32" s="3">
+        <v>45709</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT20" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:65">
-      <c r="A21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="3">
-        <v>45237</v>
-      </c>
-      <c r="D21" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E21" s="4">
-        <f t="shared" si="6"/>
+      <c r="G32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:70">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="3">
+        <v>45718</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ33" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:70">
+      <c r="A34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="3">
+        <v>45730</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO21" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:65">
-      <c r="A22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="3">
-        <v>45244</v>
-      </c>
-      <c r="D22" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E22" s="4">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR22" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:65">
-      <c r="A23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="3">
-        <v>45274</v>
-      </c>
-      <c r="D23" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E23" s="4">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU23" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:65">
-      <c r="A24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="3">
-        <v>45281</v>
-      </c>
-      <c r="D24" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E24" s="4">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS24" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:65">
-      <c r="A25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="3">
-        <v>45015</v>
-      </c>
-      <c r="D25" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E25" s="4">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AZ25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="BH25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BI25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BJ25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BK25" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:65">
-      <c r="A26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="3">
-        <v>45412</v>
-      </c>
-      <c r="D26" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E26" s="4">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AZ26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="BF26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BG26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BI26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BJ26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BK26" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:65">
-      <c r="A27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="3">
-        <v>45438</v>
-      </c>
-      <c r="D27" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E27" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:65">
-      <c r="A28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="3">
-        <v>45458</v>
-      </c>
-      <c r="D28" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E28" s="4">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y28" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:65">
-      <c r="A29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="3">
-        <v>45709</v>
-      </c>
-      <c r="D29" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E29" s="4">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA29" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:65">
-      <c r="A30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="3">
-        <v>45718</v>
-      </c>
-      <c r="D30" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E30" s="4">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AZ30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="BJ30" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:65">
-      <c r="A31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" s="3">
-        <v>45730</v>
-      </c>
-      <c r="D31" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E31" s="4">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BA31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BD31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BL31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BM31" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:65">
-      <c r="A32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="3">
-        <v>45732</v>
-      </c>
-      <c r="D32" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E32" s="4">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AZ32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="BJ32" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:66">
-      <c r="A33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" s="3">
-        <v>45737</v>
-      </c>
-      <c r="D33" s="4">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="E33" s="4">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BA33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BB33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BN33" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:66">
-      <c r="A34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" s="3">
-        <v>45746</v>
-      </c>
-      <c r="D34" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E34" s="4">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
       <c r="H34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AZ34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="BJ34" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:66">
+      <c r="L34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BM34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:70">
       <c r="A35" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C35" s="3">
+        <v>45732</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ35" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:70">
+      <c r="A36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="3">
+        <v>45737</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BN36" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:70">
+      <c r="A37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="3">
+        <v>45746</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ37" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:70">
+      <c r="A38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="3">
         <v>45760</v>
       </c>
-      <c r="D35" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E35" s="4">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AZ35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="BJ35" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:66">
-      <c r="A36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="3">
+      <c r="D38" s="2">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ38" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:70">
+      <c r="A39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="3">
         <v>45805</v>
       </c>
-      <c r="D36" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E36" s="4">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC36" s="1" t="s">
+      <c r="D39" s="2">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC39" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:70">
+      <c r="A40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="3">
+        <v>45871</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BR40" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/self/xlsx/projects.xlsx
+++ b/self/xlsx/projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandy1114/Desktop/myhugosite/themes/erblog/static/self/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71247BD-AADA-AB45-A233-55688C45CF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C620BA17-4568-8A4E-BF54-6DCC13CBCA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="7160" windowWidth="33600" windowHeight="12300" xr2:uid="{9A738EA0-D6A5-A140-B63F-301FB45D4570}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="149">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -602,6 +602,14 @@
   </si>
   <si>
     <t>Physical Based Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quadcopter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quadcopter.md</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1014,13 +1022,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F1F22F-448C-4942-BD42-7B99A21A1077}">
-  <dimension ref="A1:BR40"/>
+  <dimension ref="A1:BR41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomRight" activeCell="BS41" sqref="BS41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1638,7 +1646,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E5:E40" si="7">COUNTIF(R5:BZ5,"o")</f>
+        <f t="shared" ref="E5:E41" si="7">COUNTIF(R5:BZ5,"o")</f>
         <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -2563,7 +2571,7 @@
         <v>45458</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" ref="D31:D40" si="8">COUNTIF(F31:Q31,"o")</f>
+        <f t="shared" ref="D31:D41" si="8">COUNTIF(F31:Q31,"o")</f>
         <v>2</v>
       </c>
       <c r="E31" s="2">
@@ -2883,6 +2891,46 @@
         <v>11</v>
       </c>
       <c r="BR40" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:70">
+      <c r="A41" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="3">
+        <v>45883</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM41" s="1" t="s">
         <v>11</v>
       </c>
     </row>
